--- a/data/trans_orig/IPAQ_MET-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>56917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42204</v>
+        <v>43502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72947</v>
+        <v>71634</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1326463191107551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0983569569378583</v>
+        <v>0.1013820936575905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1700021255835426</v>
+        <v>0.1669426889138543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -763,19 +763,19 @@
         <v>21357</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13879</v>
+        <v>13649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31885</v>
+        <v>31818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06153661267871012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03999094957534263</v>
+        <v>0.0393280441274197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09187266692588797</v>
+        <v>0.09168099856834055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -784,19 +784,19 @@
         <v>78274</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61460</v>
+        <v>61618</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97490</v>
+        <v>97675</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1008495394294852</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07918584750803977</v>
+        <v>0.07939020047023793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.125607292022671</v>
+        <v>0.1258456420496678</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>221555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200394</v>
+        <v>200142</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244431</v>
+        <v>244838</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5163345344214151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4670187535309042</v>
+        <v>0.4664311687933586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5696474707308704</v>
+        <v>0.5705959565983489</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>194</v>
@@ -834,19 +834,19 @@
         <v>202244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>185692</v>
+        <v>183261</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>222886</v>
+        <v>220610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5827437468527382</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5350519296818709</v>
+        <v>0.5280460655664679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6422201530272471</v>
+        <v>0.6356637262804301</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>398</v>
@@ -855,19 +855,19 @@
         <v>423799</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>396089</v>
+        <v>392197</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>450882</v>
+        <v>448895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5460294832889561</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5103278433225166</v>
+        <v>0.5053131955307067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5809237618046347</v>
+        <v>0.5783632738230593</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>150620</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>131389</v>
+        <v>131515</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>172480</v>
+        <v>171541</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3510191464678299</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3062029174959362</v>
+        <v>0.3064952482235076</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4019653052881424</v>
+        <v>0.3997760171108129</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>117</v>
@@ -905,19 +905,19 @@
         <v>123454</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>104227</v>
+        <v>106317</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>139747</v>
+        <v>142446</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3557196404685517</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3003178396894725</v>
+        <v>0.3063400722343834</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4026659973184532</v>
+        <v>0.4104430818990166</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>258</v>
@@ -926,19 +926,19 @@
         <v>274074</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>248724</v>
+        <v>249727</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>301740</v>
+        <v>304136</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3531209772815587</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3204594352859493</v>
+        <v>0.3217521116154476</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3887662848295948</v>
+        <v>0.3918532057246434</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>53185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39088</v>
+        <v>39823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68397</v>
+        <v>67644</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1409882496582772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1036195095752828</v>
+        <v>0.1055670607036445</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1813161178320571</v>
+        <v>0.1793180181297112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1051,19 +1051,19 @@
         <v>25448</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17449</v>
+        <v>15663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37538</v>
+        <v>36634</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06835924919939577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04687177349236132</v>
+        <v>0.04207475287017318</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1008340898147275</v>
+        <v>0.09840754604900451</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>72</v>
@@ -1072,19 +1072,19 @@
         <v>78633</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61976</v>
+        <v>62517</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>97752</v>
+        <v>100924</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1049137654942929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08268953495423371</v>
+        <v>0.08341179906381201</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1304226972839513</v>
+        <v>0.1346554111226654</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>212907</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>193693</v>
+        <v>192967</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>232134</v>
+        <v>233302</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5643999389563993</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5134659073783099</v>
+        <v>0.5115409809455874</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6153684112375208</v>
+        <v>0.6184655366998061</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>196</v>
@@ -1122,19 +1122,19 @@
         <v>208949</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>191375</v>
+        <v>189609</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>230131</v>
+        <v>229459</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5612799880925324</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5140712601104055</v>
+        <v>0.5093279605864254</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6181772778512266</v>
+        <v>0.6163738207795711</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>395</v>
@@ -1143,19 +1143,19 @@
         <v>421856</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>395198</v>
+        <v>392560</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>448906</v>
+        <v>448018</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5628502739834566</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5272817938785664</v>
+        <v>0.5237625769811218</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.598940304232448</v>
+        <v>0.5977552788173459</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>111136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95523</v>
+        <v>92624</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131427</v>
+        <v>131065</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2946118113853235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2532230043616185</v>
+        <v>0.2455402246376799</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3484018919564149</v>
+        <v>0.3474426661875036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -1193,19 +1193,19 @@
         <v>137875</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118050</v>
+        <v>118178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>154966</v>
+        <v>157435</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3703607627080718</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.317106956252385</v>
+        <v>0.3174503087778662</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.41627051460815</v>
+        <v>0.4229017724769054</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>239</v>
@@ -1214,19 +1214,19 @@
         <v>249011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>223118</v>
+        <v>224352</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>274733</v>
+        <v>278294</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3322359605222506</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2976885131825808</v>
+        <v>0.299335087011925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3665544516317108</v>
+        <v>0.3713062716867504</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>64077</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47886</v>
+        <v>50090</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80805</v>
+        <v>81046</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1227739628140871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09175099247883543</v>
+        <v>0.09597281836361284</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1548239142098913</v>
+        <v>0.1552861649618876</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1339,19 +1339,19 @@
         <v>8813</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4006</v>
+        <v>4147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16452</v>
+        <v>17236</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05305371264657802</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02411342239732921</v>
+        <v>0.02496398996694713</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09903474635189502</v>
+        <v>0.1037562898015647</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -1360,19 +1360,19 @@
         <v>72891</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>56895</v>
+        <v>59149</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>89564</v>
+        <v>90997</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1059403739724858</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08269137973819654</v>
+        <v>0.08596810884570294</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1301734825456364</v>
+        <v>0.1322568614602212</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>253518</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>229749</v>
+        <v>230382</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>276307</v>
+        <v>275355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4857471951054037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4402044218250749</v>
+        <v>0.4414169120573301</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5294117786611373</v>
+        <v>0.527587324687174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1410,19 +1410,19 @@
         <v>88177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74754</v>
+        <v>74474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101567</v>
+        <v>101385</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5307918892540345</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4499921683385088</v>
+        <v>0.4483083103411015</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6113991103723202</v>
+        <v>0.6103031784044153</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>328</v>
@@ -1431,19 +1431,19 @@
         <v>341695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>313565</v>
+        <v>314414</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>370469</v>
+        <v>366998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4966230003265832</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4557388913221779</v>
+        <v>0.4569725859379967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5384442638400561</v>
+        <v>0.5333994358146938</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>204318</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>184402</v>
+        <v>181348</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>229309</v>
+        <v>226877</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3914788420805092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.353319553001168</v>
+        <v>0.3474672170844722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4393609908058047</v>
+        <v>0.4347024811742179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -1481,19 +1481,19 @@
         <v>69133</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57266</v>
+        <v>56113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82245</v>
+        <v>82712</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4161543980993875</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3447187139958937</v>
+        <v>0.3377806119796991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.495082174988959</v>
+        <v>0.4978936946576833</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>257</v>
@@ -1502,19 +1502,19 @@
         <v>273451</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>246607</v>
+        <v>247612</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>298270</v>
+        <v>299110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.397436625700931</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3584210441783875</v>
+        <v>0.359882563411194</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4335099307331946</v>
+        <v>0.4347307969792123</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>140691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122415</v>
+        <v>117800</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>165727</v>
+        <v>162680</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1223785334666918</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1064817789587067</v>
+        <v>0.1024666045678078</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1441553779839203</v>
+        <v>0.1415053971865534</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1627,19 +1627,19 @@
         <v>58548</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45795</v>
+        <v>44951</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74945</v>
+        <v>73885</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07089205104421076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05544986270988866</v>
+        <v>0.05442792931702232</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09074584263519565</v>
+        <v>0.08946252478408133</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>194</v>
@@ -1648,19 +1648,19 @@
         <v>199239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174254</v>
+        <v>171171</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>224569</v>
+        <v>225830</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1008542932279577</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08820688212278482</v>
+        <v>0.08664641235656419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1136763191351059</v>
+        <v>0.1143145853757032</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>578244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>543323</v>
+        <v>540854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>609999</v>
+        <v>610427</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5029795883400856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4726036875687024</v>
+        <v>0.4704555776743123</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5306007261534409</v>
+        <v>0.5309734527767866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>383</v>
@@ -1698,19 +1698,19 @@
         <v>392018</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>362060</v>
+        <v>361658</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>420090</v>
+        <v>420473</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4746688060061802</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4383955302306767</v>
+        <v>0.4379083347207843</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5086594505325001</v>
+        <v>0.5091237363272506</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>934</v>
@@ -1719,19 +1719,19 @@
         <v>970262</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>919915</v>
+        <v>926058</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1015893</v>
+        <v>1018113</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4911440918829531</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4656583766694989</v>
+        <v>0.4687683217060153</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5142421432190977</v>
+        <v>0.5153660271863683</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>430703</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>400836</v>
+        <v>400320</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>463146</v>
+        <v>466572</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3746418781932225</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3486631548133798</v>
+        <v>0.3482142446504508</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4028625488015163</v>
+        <v>0.4058429243973592</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>357</v>
@@ -1769,19 +1769,19 @@
         <v>375310</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>346365</v>
+        <v>347854</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>406291</v>
+        <v>406012</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4544391429496091</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4193909932530581</v>
+        <v>0.4211939820053039</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4919513828507091</v>
+        <v>0.491613749691424</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>773</v>
@@ -1790,19 +1790,19 @@
         <v>806013</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>760111</v>
+        <v>756663</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>850665</v>
+        <v>850082</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4080016148890891</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3847659700390919</v>
+        <v>0.383020741329172</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.430604149005485</v>
+        <v>0.4303092923951016</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>85267</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69464</v>
+        <v>69296</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102845</v>
+        <v>104635</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1373707257985567</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1119111895670131</v>
+        <v>0.1116402918907641</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1656910787235372</v>
+        <v>0.1685742319980599</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -1915,19 +1915,19 @@
         <v>43011</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31420</v>
+        <v>31002</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57553</v>
+        <v>55870</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0582608026538553</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04256050850213494</v>
+        <v>0.04199358763506515</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07795889752884737</v>
+        <v>0.07567989691055937</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>123</v>
@@ -1936,19 +1936,19 @@
         <v>128278</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107939</v>
+        <v>107891</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>153242</v>
+        <v>150158</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0943945781044135</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07942797997383598</v>
+        <v>0.07939279354802536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1127651336633435</v>
+        <v>0.1104958701643902</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>284840</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>257708</v>
+        <v>257258</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>308987</v>
+        <v>310438</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4588962215367335</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4151850196187443</v>
+        <v>0.4144606888844207</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4977985968445375</v>
+        <v>0.5001369297825822</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>313</v>
@@ -1986,19 +1986,19 @@
         <v>328103</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>300217</v>
+        <v>302424</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>356755</v>
+        <v>356751</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4444371219311086</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4066634852503425</v>
+        <v>0.4096537977972902</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4832485727008067</v>
+        <v>0.4832427117882346</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>585</v>
@@ -2007,19 +2007,19 @@
         <v>612943</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>577152</v>
+        <v>576637</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>650892</v>
+        <v>648725</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4510413738074663</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4247043931121283</v>
+        <v>0.4243251198574565</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.478966804662949</v>
+        <v>0.4773723125796892</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>250600</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>227657</v>
+        <v>226253</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>275777</v>
+        <v>274535</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4037330526647098</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3667712885287132</v>
+        <v>0.3645083544731273</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.444295596039771</v>
+        <v>0.4422942050501505</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>344</v>
@@ -2057,19 +2057,19 @@
         <v>367130</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>339725</v>
+        <v>338516</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>396113</v>
+        <v>391992</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4973020754150361</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4601798654399605</v>
+        <v>0.4585424369685599</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5365611261759147</v>
+        <v>0.5309784723881293</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>588</v>
@@ -2078,19 +2078,19 @@
         <v>617730</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>580829</v>
+        <v>580330</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>654421</v>
+        <v>654045</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4545640480881202</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.427409879947626</v>
+        <v>0.4270430242244703</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4815635367811593</v>
+        <v>0.4812867095956163</v>
       </c>
     </row>
     <row r="23">
@@ -2182,19 +2182,19 @@
         <v>74926</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61251</v>
+        <v>61048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90767</v>
+        <v>91846</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2609329156674623</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2133095544470259</v>
+        <v>0.2126048409717348</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3161022112771542</v>
+        <v>0.3198594588836206</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -2203,19 +2203,19 @@
         <v>40216</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29017</v>
+        <v>28785</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54139</v>
+        <v>53197</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03716772510700576</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02681684813756813</v>
+        <v>0.02660274753642093</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05003458658790581</v>
+        <v>0.04916473457479859</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>110</v>
@@ -2224,19 +2224,19 @@
         <v>115142</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>95898</v>
+        <v>95122</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>136585</v>
+        <v>135128</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08409622094996382</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07004124975548849</v>
+        <v>0.06947387661891667</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09975742879380835</v>
+        <v>0.09869334735330938</v>
       </c>
     </row>
     <row r="25">
@@ -2253,19 +2253,19 @@
         <v>149326</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>131581</v>
+        <v>131435</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>164658</v>
+        <v>166081</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5200374260474329</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4582376911953479</v>
+        <v>0.4577313776969048</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5734302446520577</v>
+        <v>0.578386566268819</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>453</v>
@@ -2274,19 +2274,19 @@
         <v>480666</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>443832</v>
+        <v>446660</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>511931</v>
+        <v>514110</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4442284001191175</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4101865275477062</v>
+        <v>0.4128004618279381</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.47312328903925</v>
+        <v>0.4751368786711215</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>593</v>
@@ -2295,19 +2295,19 @@
         <v>629992</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>589479</v>
+        <v>594536</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>667215</v>
+        <v>668904</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4601272249060517</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4305376973306185</v>
+        <v>0.4342310302415353</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4873134808653403</v>
+        <v>0.4885469315932671</v>
       </c>
     </row>
     <row r="26">
@@ -2324,19 +2324,19 @@
         <v>62893</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50337</v>
+        <v>49649</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77543</v>
+        <v>78823</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2190296582851049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1753032449319058</v>
+        <v>0.1729062395384927</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2700469743997386</v>
+        <v>0.274504512434094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>500</v>
@@ -2345,19 +2345,19 @@
         <v>561142</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>529100</v>
+        <v>528146</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>596237</v>
+        <v>597116</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5186038747738768</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4889901043060327</v>
+        <v>0.4881084633611342</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.551037955205634</v>
+        <v>0.5518501570523804</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>561</v>
@@ -2366,19 +2366,19 @@
         <v>624036</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>583768</v>
+        <v>583247</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>659156</v>
+        <v>660820</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4557765541439845</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.426366044848923</v>
+        <v>0.4259859117194296</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4814270745474937</v>
+        <v>0.4826426186245533</v>
       </c>
     </row>
     <row r="27">
@@ -2470,19 +2470,19 @@
         <v>475063</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>437334</v>
+        <v>433446</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>524195</v>
+        <v>517960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1403136293000879</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1291700860234719</v>
+        <v>0.1280218721327187</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1548251291471091</v>
+        <v>0.1529837501234319</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>192</v>
@@ -2491,19 +2491,19 @@
         <v>197393</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>172866</v>
+        <v>170396</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>222413</v>
+        <v>225570</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05589356206716652</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04894844403262539</v>
+        <v>0.04824912391004466</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0629780698129332</v>
+        <v>0.06387205760116074</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>641</v>
@@ -2512,19 +2512,19 @@
         <v>672456</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>623482</v>
+        <v>627511</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>727502</v>
+        <v>729465</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09721346258592353</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0901334480228438</v>
+        <v>0.09071592269022893</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1051710862726598</v>
+        <v>0.1054549208429251</v>
       </c>
     </row>
     <row r="29">
@@ -2541,19 +2541,19 @@
         <v>1700390</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1640148</v>
+        <v>1646450</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1757787</v>
+        <v>1759602</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5022238758251715</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.484430711117569</v>
+        <v>0.4862922798582702</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5191764669029678</v>
+        <v>0.5197124033960092</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1622</v>
@@ -2562,19 +2562,19 @@
         <v>1700157</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1636543</v>
+        <v>1641517</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1757783</v>
+        <v>1763000</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4814132544816981</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4634004129331322</v>
+        <v>0.4648087812201446</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4977303568516416</v>
+        <v>0.4992076089337805</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3233</v>
@@ -2583,19 +2583,19 @@
         <v>3400548</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3318931</v>
+        <v>3308006</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3482780</v>
+        <v>3485948</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4915991360123694</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4798003196734779</v>
+        <v>0.4782209231371496</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5034870721627888</v>
+        <v>0.5039450003334165</v>
       </c>
     </row>
     <row r="30">
@@ -2612,19 +2612,19 @@
         <v>1210269</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1156072</v>
+        <v>1156895</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1271874</v>
+        <v>1268025</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3574624948747406</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3414551346613016</v>
+        <v>0.341698095360003</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3756579902993919</v>
+        <v>0.374521292535031</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1512</v>
@@ -2633,19 +2633,19 @@
         <v>1634045</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1572646</v>
+        <v>1572895</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1695741</v>
+        <v>1696271</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4626931834511354</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4453073514483906</v>
+        <v>0.4453779876043897</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4801627323347143</v>
+        <v>0.4803127774831218</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2676</v>
@@ -2654,19 +2654,19 @@
         <v>2844314</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2758938</v>
+        <v>2764561</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2926396</v>
+        <v>2934744</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4111874014017071</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3988450784635494</v>
+        <v>0.3996579801227685</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4230535675465093</v>
+        <v>0.4242603267573022</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>154567</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134318</v>
+        <v>132500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178841</v>
+        <v>177393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2807148087142987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2439395992377275</v>
+        <v>0.2406385562154464</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3247998743714766</v>
+        <v>0.3221700811032391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -3021,19 +3021,19 @@
         <v>118219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101301</v>
+        <v>101367</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136451</v>
+        <v>137178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2420492119731507</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2074094351759578</v>
+        <v>0.2075454034398299</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.279377692751958</v>
+        <v>0.2808665751273902</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>312</v>
@@ -3042,19 +3042,19 @@
         <v>272786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246296</v>
+        <v>244172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>302145</v>
+        <v>301214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2625394781007627</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2370444180953798</v>
+        <v>0.2349998429520164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2907955762939581</v>
+        <v>0.2898995037765836</v>
       </c>
     </row>
     <row r="5">
@@ -3071,19 +3071,19 @@
         <v>287009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259741</v>
+        <v>263434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>310116</v>
+        <v>313531</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.521248649532342</v>
+        <v>0.5212486495323418</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.471725809307775</v>
+        <v>0.4784328908152213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5632136789811684</v>
+        <v>0.5694172007778453</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>371</v>
@@ -3092,19 +3092,19 @@
         <v>258991</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237978</v>
+        <v>239744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278443</v>
+        <v>277044</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5302731781705865</v>
+        <v>0.5302731781705864</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4872486874919892</v>
+        <v>0.4908656412432202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5700992507039393</v>
+        <v>0.5672352899150593</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>666</v>
@@ -3113,19 +3113,19 @@
         <v>546000</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>513941</v>
+        <v>513489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>577066</v>
+        <v>578776</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5254907615248064</v>
+        <v>0.5254907615248063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4946359673567818</v>
+        <v>0.4942010396626684</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5553895167972237</v>
+        <v>0.5570351936684164</v>
       </c>
     </row>
     <row r="6">
@@ -3142,19 +3142,19 @@
         <v>109042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91224</v>
+        <v>92414</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131915</v>
+        <v>131346</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1980365417533595</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1656752546780871</v>
+        <v>0.1678366127970296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2395760920587685</v>
+        <v>0.2385429010075311</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>154</v>
@@ -3163,19 +3163,19 @@
         <v>111200</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>95515</v>
+        <v>94917</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128090</v>
+        <v>128817</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2276776098562628</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1955637254188995</v>
+        <v>0.1943385034597758</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2622577091791859</v>
+        <v>0.263747865560169</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>262</v>
@@ -3184,19 +3184,19 @@
         <v>220243</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>197376</v>
+        <v>196865</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>247680</v>
+        <v>247460</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.211969760374431</v>
+        <v>0.2119697603744309</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1899617332995734</v>
+        <v>0.1894704740183863</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.238376860155826</v>
+        <v>0.2381644368204299</v>
       </c>
     </row>
     <row r="7">
@@ -3288,19 +3288,19 @@
         <v>147506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126250</v>
+        <v>126682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171945</v>
+        <v>170686</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3052618960189477</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2612721181944754</v>
+        <v>0.2621663641689983</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.355837092871939</v>
+        <v>0.3532314710820246</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>114</v>
@@ -3309,19 +3309,19 @@
         <v>77604</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64952</v>
+        <v>65500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>91186</v>
+        <v>92403</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1833983681819525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1534999816145034</v>
+        <v>0.154793064436842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2154962197596517</v>
+        <v>0.2183738583070871</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>254</v>
@@ -3330,19 +3330,19 @@
         <v>225110</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>200210</v>
+        <v>199486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>253804</v>
+        <v>250568</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2483684261059265</v>
+        <v>0.2483684261059264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2208960424464366</v>
+        <v>0.2200968856877749</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2800269920816835</v>
+        <v>0.2764563471879701</v>
       </c>
     </row>
     <row r="9">
@@ -3359,19 +3359,19 @@
         <v>221487</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>197177</v>
+        <v>198463</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>247035</v>
+        <v>246439</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4583644876065084</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4080544706345223</v>
+        <v>0.4107158267859842</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5112351581713381</v>
+        <v>0.5100013227044082</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>310</v>
@@ -3380,19 +3380,19 @@
         <v>219091</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>201389</v>
+        <v>202000</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>236189</v>
+        <v>236651</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5177708049754799</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4759368192893196</v>
+        <v>0.4773807534791941</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5581769631878233</v>
+        <v>0.5592695460377921</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>536</v>
@@ -3401,19 +3401,19 @@
         <v>440578</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>410541</v>
+        <v>412758</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>470307</v>
+        <v>469668</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4860990492909185</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4529577437657058</v>
+        <v>0.4554047300929997</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5188994348047478</v>
+        <v>0.5181942942963416</v>
       </c>
     </row>
     <row r="10">
@@ -3430,19 +3430,19 @@
         <v>114219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95612</v>
+        <v>97787</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137082</v>
+        <v>136294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2363736163745439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1978685511882573</v>
+        <v>0.2023677783007696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2836889714816795</v>
+        <v>0.2820583324345333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>166</v>
@@ -3451,19 +3451,19 @@
         <v>126448</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109754</v>
+        <v>110636</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>143646</v>
+        <v>143338</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2988308268425676</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2593786823080709</v>
+        <v>0.2614635689728912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3394736415660162</v>
+        <v>0.3387450086597726</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>281</v>
@@ -3472,19 +3472,19 @@
         <v>240667</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>214728</v>
+        <v>217595</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>270520</v>
+        <v>269195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2655325246031551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2369133321425325</v>
+        <v>0.2400765516536525</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.298470100025009</v>
+        <v>0.2970084111614886</v>
       </c>
     </row>
     <row r="11">
@@ -3576,19 +3576,19 @@
         <v>130470</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>111114</v>
+        <v>110726</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>150127</v>
+        <v>152120</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2766466225964487</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.235603966958665</v>
+        <v>0.2347814842993261</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3183273867968255</v>
+        <v>0.3225532620808009</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -3597,19 +3597,19 @@
         <v>28425</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20987</v>
+        <v>21347</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36404</v>
+        <v>37519</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1516013777657109</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.111932825209945</v>
+        <v>0.1138539473865479</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1941604074752761</v>
+        <v>0.2001046992604984</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>176</v>
@@ -3618,19 +3618,19 @@
         <v>158895</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>139303</v>
+        <v>138174</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>184404</v>
+        <v>180675</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2410748978860623</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2113506008984539</v>
+        <v>0.2096377672486029</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2797782801573604</v>
+        <v>0.2741205440665815</v>
       </c>
     </row>
     <row r="13">
@@ -3647,19 +3647,19 @@
         <v>195720</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173967</v>
+        <v>174006</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>217013</v>
+        <v>216853</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4150028470228189</v>
+        <v>0.4150028470228188</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3688781488366534</v>
+        <v>0.3689610913918069</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4601510968919565</v>
+        <v>0.4598115849632638</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -3668,19 +3668,19 @@
         <v>80619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69454</v>
+        <v>69239</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91623</v>
+        <v>91361</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4299747028372355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3704294572834899</v>
+        <v>0.3692820729088763</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4886615875021957</v>
+        <v>0.487268536759764</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>335</v>
@@ -3689,19 +3689,19 @@
         <v>276339</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>249630</v>
+        <v>250873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>301943</v>
+        <v>299689</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4192619032880525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3787380646089578</v>
+        <v>0.3806249141739081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4581071619251761</v>
+        <v>0.45468751932576</v>
       </c>
     </row>
     <row r="14">
@@ -3718,19 +3718,19 @@
         <v>145422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>124969</v>
+        <v>123464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>166697</v>
+        <v>166226</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3083505303807325</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2649836974062135</v>
+        <v>0.261791262413141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3534632067852874</v>
+        <v>0.3524624304393538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -3739,19 +3739,19 @@
         <v>78453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67551</v>
+        <v>67719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90469</v>
+        <v>90100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4184239193970535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3602756163445629</v>
+        <v>0.3611761709353891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4825085859224563</v>
+        <v>0.4805411018210382</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>266</v>
@@ -3760,19 +3760,19 @@
         <v>223875</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>198466</v>
+        <v>201853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>248516</v>
+        <v>250197</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3396631988258852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3011132089863356</v>
+        <v>0.306251538592145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3770482398725461</v>
+        <v>0.3795994064518597</v>
       </c>
     </row>
     <row r="15">
@@ -3864,19 +3864,19 @@
         <v>269230</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>236804</v>
+        <v>239920</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>304111</v>
+        <v>302627</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2378686207562354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2092199394976489</v>
+        <v>0.211973063538688</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2686862425274599</v>
+        <v>0.2673751438064594</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>271</v>
@@ -3885,19 +3885,19 @@
         <v>181957</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>161162</v>
+        <v>162356</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>205219</v>
+        <v>203589</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2112798143240162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1871346184439282</v>
+        <v>0.1885200438156547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2382906874177985</v>
+        <v>0.2363981428874252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>525</v>
@@ -3906,19 +3906,19 @@
         <v>451186</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>414353</v>
+        <v>414933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>492493</v>
+        <v>488823</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2263794280958193</v>
+        <v>0.2263794280958194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2078986063553323</v>
+        <v>0.2081895949897934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.247104768374666</v>
+        <v>0.2452630598054299</v>
       </c>
     </row>
     <row r="17">
@@ -3935,19 +3935,19 @@
         <v>513471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>476235</v>
+        <v>478424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>548377</v>
+        <v>551097</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4536587945751205</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4207606073451258</v>
+        <v>0.4226942659889183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4844990979682742</v>
+        <v>0.4869026375831648</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>566</v>
@@ -3956,19 +3956,19 @@
         <v>402766</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>377169</v>
+        <v>376601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>427959</v>
+        <v>427002</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4676736586067125</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4379514521322812</v>
+        <v>0.4372924246529201</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4969265753508913</v>
+        <v>0.4958162881561437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1078</v>
@@ -3977,19 +3977,19 @@
         <v>916236</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>873779</v>
+        <v>877153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>959228</v>
+        <v>963207</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4597147066138563</v>
+        <v>0.4597147066138564</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4384120969437285</v>
+        <v>0.4401050905397653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4812855317319005</v>
+        <v>0.4832819965977586</v>
       </c>
     </row>
     <row r="18">
@@ -4006,19 +4006,19 @@
         <v>349143</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>316229</v>
+        <v>314717</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>383128</v>
+        <v>382422</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3084725846686441</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2793926135867633</v>
+        <v>0.2780569084487984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3384994743006715</v>
+        <v>0.3378756650481721</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>393</v>
@@ -4027,19 +4027,19 @@
         <v>276489</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>254045</v>
+        <v>253320</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>301626</v>
+        <v>303601</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3210465270692713</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2949857678469694</v>
+        <v>0.2941440721347709</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3502348351934279</v>
+        <v>0.3525277167729164</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>745</v>
@@ -4048,19 +4048,19 @@
         <v>625631</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>586914</v>
+        <v>586416</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>665733</v>
+        <v>667894</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3139058652903242</v>
+        <v>0.3139058652903243</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2944797763154139</v>
+        <v>0.294229633648482</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3340266895305018</v>
+        <v>0.3351106937363289</v>
       </c>
     </row>
     <row r="19">
@@ -4152,19 +4152,19 @@
         <v>124795</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104172</v>
+        <v>101908</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150094</v>
+        <v>147483</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2197233809941945</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1834123022499866</v>
+        <v>0.1794273320390408</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2642664384310449</v>
+        <v>0.2596689444634839</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>215</v>
@@ -4173,19 +4173,19 @@
         <v>141917</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123189</v>
+        <v>125116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160530</v>
+        <v>161112</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1708090206132118</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.148268529176373</v>
+        <v>0.1505882464181331</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1932112956766674</v>
+        <v>0.1939123415943033</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>321</v>
@@ -4194,19 +4194,19 @@
         <v>266712</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>237738</v>
+        <v>239126</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>298212</v>
+        <v>298801</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1906698338237588</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1699571067649648</v>
+        <v>0.170948836195088</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2131889286102753</v>
+        <v>0.2136099630625863</v>
       </c>
     </row>
     <row r="21">
@@ -4223,19 +4223,19 @@
         <v>246727</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>221281</v>
+        <v>223599</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>273053</v>
+        <v>276438</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4344057953081116</v>
+        <v>0.4344057953081115</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3896045721572414</v>
+        <v>0.3936854931180765</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4807573951734594</v>
+        <v>0.4867173306465506</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>542</v>
@@ -4244,19 +4244,19 @@
         <v>363642</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>339849</v>
+        <v>340291</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>386451</v>
+        <v>389648</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4376751591541926</v>
+        <v>0.4376751591541927</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4090382959127871</v>
+        <v>0.4095695494303834</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4651276199062579</v>
+        <v>0.4689753581438494</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>782</v>
@@ -4265,19 +4265,19 @@
         <v>610369</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>572616</v>
+        <v>575589</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>646869</v>
+        <v>643149</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.436347691634254</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4093585394654679</v>
+        <v>0.4114835766966116</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4624412525044652</v>
+        <v>0.4597818232633872</v>
       </c>
     </row>
     <row r="22">
@@ -4294,19 +4294,19 @@
         <v>196442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>175617</v>
+        <v>170608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>223413</v>
+        <v>220988</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3458708236976938</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3092047850127108</v>
+        <v>0.3003850289555981</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.393358169510065</v>
+        <v>0.3890877463549157</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>533</v>
@@ -4315,19 +4315,19 @@
         <v>325291</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>303905</v>
+        <v>305294</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>348276</v>
+        <v>350882</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3915158202325955</v>
+        <v>0.3915158202325956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3657755517549887</v>
+        <v>0.3674477870032941</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4191802956646696</v>
+        <v>0.4223171550139883</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>734</v>
@@ -4336,19 +4336,19 @@
         <v>521733</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>488887</v>
+        <v>486797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>554582</v>
+        <v>554635</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3729824745419873</v>
+        <v>0.3729824745419872</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3495012630420845</v>
+        <v>0.3480069369869195</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3964658427947017</v>
+        <v>0.3965034357892296</v>
       </c>
     </row>
     <row r="23">
@@ -4440,19 +4440,19 @@
         <v>95437</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74560</v>
+        <v>71222</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>120703</v>
+        <v>118582</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4022989758069536</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3142985851528247</v>
+        <v>0.3002269107427019</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5088051075938607</v>
+        <v>0.4998652113788813</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>122</v>
@@ -4461,19 +4461,19 @@
         <v>83691</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>68911</v>
+        <v>68083</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>105151</v>
+        <v>103659</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09912638254528089</v>
+        <v>0.0991263825452809</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08162101861215101</v>
+        <v>0.0806399719175675</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1245454358460915</v>
+        <v>0.1227776904741408</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>166</v>
@@ -4482,19 +4482,19 @@
         <v>179127</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>149814</v>
+        <v>151361</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>213669</v>
+        <v>211000</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1656269563890786</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1385226734103624</v>
+        <v>0.1399534241748772</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1975657206849382</v>
+        <v>0.1950974301024751</v>
       </c>
     </row>
     <row r="25">
@@ -4511,19 +4511,19 @@
         <v>108525</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85239</v>
+        <v>84945</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>134782</v>
+        <v>134008</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4574694686946135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.359312123061178</v>
+        <v>0.3580733901671971</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5681556694914838</v>
+        <v>0.5648910408016929</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>468</v>
@@ -4532,19 +4532,19 @@
         <v>357475</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>330171</v>
+        <v>328382</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>385345</v>
+        <v>384220</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4234078336348042</v>
+        <v>0.4234078336348043</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.391067755775464</v>
+        <v>0.3889482541512053</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.456417359233512</v>
+        <v>0.4550850465784878</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>518</v>
@@ -4553,19 +4553,19 @@
         <v>466000</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>428859</v>
+        <v>430366</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>503557</v>
+        <v>503558</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4308792157052155</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3965377725002182</v>
+        <v>0.3979308952100486</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4656059633978978</v>
+        <v>0.46560680338884</v>
       </c>
     </row>
     <row r="26">
@@ -4582,19 +4582,19 @@
         <v>33267</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18285</v>
+        <v>19508</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53583</v>
+        <v>54743</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1402315554984329</v>
+        <v>0.140231555498433</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07707774909572301</v>
+        <v>0.08223276492670117</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2258730863341649</v>
+        <v>0.2307596477054721</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>569</v>
@@ -4603,19 +4603,19 @@
         <v>403115</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>375691</v>
+        <v>376070</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>429571</v>
+        <v>434237</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4774657838199148</v>
+        <v>0.4774657838199149</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4449827978528392</v>
+        <v>0.4454323649564289</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.508801414606366</v>
+        <v>0.5143277625425847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>587</v>
@@ -4624,19 +4624,19 @@
         <v>436382</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>401896</v>
+        <v>401319</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>474105</v>
+        <v>471839</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.403493827905706</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3716069730930598</v>
+        <v>0.3710733743903164</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4383735763578768</v>
+        <v>0.4362781067324164</v>
       </c>
     </row>
     <row r="27">
@@ -4728,19 +4728,19 @@
         <v>922004</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>859179</v>
+        <v>864645</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>979086</v>
+        <v>982036</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2678316137282001</v>
+        <v>0.2678316137282002</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2495817806412196</v>
+        <v>0.2511695466743026</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2844134532783356</v>
+        <v>0.2852702668722754</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>929</v>
@@ -4749,19 +4749,19 @@
         <v>631812</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>591880</v>
+        <v>591528</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>675291</v>
+        <v>673500</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1737946198062938</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1628103244291898</v>
+        <v>0.1627136779276517</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1857545536525911</v>
+        <v>0.1852619238738254</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1754</v>
@@ -4770,19 +4770,19 @@
         <v>1553816</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1482611</v>
+        <v>1480320</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1628113</v>
+        <v>1622019</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2195315621353542</v>
+        <v>0.2195315621353543</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2094713441703048</v>
+        <v>0.2091476470658953</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2300286444136194</v>
+        <v>0.2291677470283724</v>
       </c>
     </row>
     <row r="29">
@@ -4799,19 +4799,19 @@
         <v>1572938</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1511098</v>
+        <v>1503860</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1641244</v>
+        <v>1635264</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4569205319120112</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4389567518006885</v>
+        <v>0.4368542178575162</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4767626863486837</v>
+        <v>0.4750256768718797</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2380</v>
@@ -4820,19 +4820,19 @@
         <v>1682585</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1629784</v>
+        <v>1631755</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1736854</v>
+        <v>1736141</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4628343011917286</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4483102228278406</v>
+        <v>0.4488523838160393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4777623499729546</v>
+        <v>0.4775663227367491</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3915</v>
@@ -4841,19 +4841,19 @@
         <v>3255523</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3173901</v>
+        <v>3174816</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3344554</v>
+        <v>3338188</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4599580105616981</v>
+        <v>0.4599580105616982</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4484260780399206</v>
+        <v>0.4485553850759718</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4725369196480959</v>
+        <v>0.4716374521010409</v>
       </c>
     </row>
     <row r="30">
@@ -4870,19 +4870,19 @@
         <v>947534</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>893190</v>
+        <v>890651</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1005645</v>
+        <v>1008779</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2752478543597888</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2594615691657373</v>
+        <v>0.2587240122850108</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2921284885621921</v>
+        <v>0.2930389194706676</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1935</v>
@@ -4891,19 +4891,19 @@
         <v>1320997</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1266025</v>
+        <v>1265339</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1372465</v>
+        <v>1369965</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3633710790019777</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3482498962920241</v>
+        <v>0.3480612438997056</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3775286465037345</v>
+        <v>0.3768409655257012</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2875</v>
@@ -4912,19 +4912,19 @@
         <v>2268531</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2197867</v>
+        <v>2189132</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2345180</v>
+        <v>2352059</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3205104273029475</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3105266132831875</v>
+        <v>0.3092925428470349</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3313398843495228</v>
+        <v>0.3323116767408323</v>
       </c>
     </row>
     <row r="31">
